--- a/TemperatureData/St.Mikes01/1101.xlsx
+++ b/TemperatureData/St.Mikes01/1101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/St.Mikes01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.Mikes01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1E3D474-9354-40F7-991D-19B79B0FD6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8CA14-90C3-4245-9F3B-E453BA84686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1101" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Plot Title: 21422124</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422124)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger was placed at St. Mikes -01</t>
   </si>
   <si>
@@ -76,11 +73,14 @@
   <si>
     <t>#On final visit (08/04/2022) logger has dried up again.</t>
   </si>
+  <si>
+    <t>#Estimated retrieval time at 9:30. Deleted all data after that time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,9 +620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -660,7 +660,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -766,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -908,17 +908,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5860"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5849"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5819" workbookViewId="0">
+      <selection activeCell="A5842" sqref="A5842"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -82817,201 +82819,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5850" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5850">
-        <v>5848</v>
-      </c>
-      <c r="B5850" s="1">
-        <v>44777.40625</v>
-      </c>
-      <c r="C5850">
-        <v>81.620999999999995</v>
-      </c>
-      <c r="D5850">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5851" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5851">
-        <v>5849</v>
-      </c>
-      <c r="B5851" s="1">
-        <v>44777.416666666664</v>
-      </c>
-      <c r="C5851">
-        <v>80.028999999999996</v>
-      </c>
-      <c r="D5851">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5852" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5852">
-        <v>5850</v>
-      </c>
-      <c r="B5852" s="1">
-        <v>44777.427083333336</v>
-      </c>
-      <c r="C5852">
-        <v>79.501999999999995</v>
-      </c>
-      <c r="D5852">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5853" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5853">
-        <v>5851</v>
-      </c>
-      <c r="B5853" s="1">
-        <v>44777.4375</v>
-      </c>
-      <c r="C5853">
-        <v>77.573999999999998</v>
-      </c>
-      <c r="D5853">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5854" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5854">
-        <v>5852</v>
-      </c>
-      <c r="B5854" s="1">
-        <v>44777.447916666664</v>
-      </c>
-      <c r="C5854">
-        <v>77.05</v>
-      </c>
-      <c r="D5854">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5855" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5855">
-        <v>5853</v>
-      </c>
-      <c r="B5855" s="1">
-        <v>44777.458333333336</v>
-      </c>
-      <c r="C5855">
-        <v>77.05</v>
-      </c>
-      <c r="D5855">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5856" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5856">
-        <v>5854</v>
-      </c>
-      <c r="B5856" s="1">
-        <v>44777.46875</v>
-      </c>
-      <c r="C5856">
-        <v>76.703000000000003</v>
-      </c>
-      <c r="D5856">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5857" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5857">
-        <v>5855</v>
-      </c>
-      <c r="B5857" s="1">
-        <v>44777.472604166665</v>
-      </c>
-      <c r="E5857" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5858" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5858">
-        <v>5856</v>
-      </c>
-      <c r="B5858" s="1">
-        <v>44777.473113425927</v>
-      </c>
-      <c r="F5858" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5859" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5859">
-        <v>5857</v>
-      </c>
-      <c r="B5859" s="1">
-        <v>44777.473194444443</v>
-      </c>
-      <c r="E5859" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5859" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5860" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5860">
-        <v>5858</v>
-      </c>
-      <c r="B5860" s="1">
-        <v>44777.473414351851</v>
-      </c>
-      <c r="H5860" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5860" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -83248,15 +83107,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -83267,14 +83117,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937E4AE2-3279-4FA4-83EA-BFA5AAAB13E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937E4AE2-3279-4FA4-83EA-BFA5AAAB13E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3847E94-5055-48C0-8988-7E7E36477418}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4872733-9EF4-4822-96F7-45D8F56D72C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4872733-9EF4-4822-96F7-45D8F56D72C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3847E94-5055-48C0-8988-7E7E36477418}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>